--- a/data/primary-energy-consumption-by-fuel-2018-2019.xlsx
+++ b/data/primary-energy-consumption-by-fuel-2018-2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Recon\where-do-they-get-power-from\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F936754-AB63-473E-9DFA-1B1989F4197B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8A9402-3792-49ED-84DF-1D6D4552EFED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="-15465" windowWidth="25935" windowHeight="14295" xr2:uid="{A5F3611B-65A2-4361-A406-676BB8A7A7A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A5F3611B-65A2-4361-A406-676BB8A7A7A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>Hydro electric</t>
   </si>
   <si>
-    <t>Renew- ables</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -298,6 +295,9 @@
   </si>
   <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>Renewables</t>
   </si>
 </sst>
 </file>
@@ -685,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792BC24A-2887-4F6C-8765-0D54A4BB2A3F}">
   <dimension ref="A1:I171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,10 +697,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
         <v>86</v>
-      </c>
-      <c r="B1" t="s">
-        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -718,15 +718,15 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>2018</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>2018</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>2018</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>2018</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>2018</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>2018</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>2018</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>2018</v>
@@ -970,7 +970,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>2018</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>2018</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>2018</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>2018</v>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>2018</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>2018</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>2018</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>2018</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>2018</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>2018</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>2018</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>2018</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>2018</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>2018</v>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>2018</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>2018</v>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>2018</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>2018</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>2018</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>2018</v>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>2018</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>2018</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>2018</v>
@@ -1649,7 +1649,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>2018</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>2018</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>2018</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>2018</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>2018</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <v>2018</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>2018</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>2018</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44">
         <v>2018</v>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>2018</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>2018</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>2018</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <v>2018</v>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>2018</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>2018</v>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>2018</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>2018</v>
@@ -2166,7 +2166,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>2018</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>2018</v>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>2018</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>2018</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>2018</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>2018</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>2018</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>2018</v>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>2018</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64">
         <v>2018</v>
@@ -2468,7 +2468,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>2018</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>2018</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>2018</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>2018</v>
@@ -2596,7 +2596,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>2018</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>2018</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>2018</v>
@@ -2683,7 +2683,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73">
         <v>2018</v>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>2018</v>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>2018</v>
@@ -2770,7 +2770,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>2018</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>2018</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>2018</v>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>2018</v>
@@ -2886,7 +2886,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>2018</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>2018</v>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>2018</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>2018</v>
@@ -3002,7 +3002,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>2018</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>2018</v>
@@ -3060,7 +3060,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>2018</v>
@@ -3089,7 +3089,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B87">
         <v>2019</v>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B88">
         <v>2019</v>
@@ -3147,7 +3147,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B89">
         <v>2019</v>
@@ -3176,7 +3176,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B90">
         <v>2019</v>
@@ -3217,7 +3217,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B92">
         <v>2019</v>
@@ -3246,7 +3246,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B93">
         <v>2019</v>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B94">
         <v>2019</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B95">
         <v>2019</v>
@@ -3333,7 +3333,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B96">
         <v>2019</v>
@@ -3362,7 +3362,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B97">
         <v>2019</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B98">
         <v>2019</v>
@@ -3420,7 +3420,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B99">
         <v>2019</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B100">
         <v>2019</v>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B101">
         <v>2019</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B103">
         <v>2019</v>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B104">
         <v>2019</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B105">
         <v>2019</v>
@@ -3606,7 +3606,7 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B106">
         <v>2019</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B107">
         <v>2019</v>
@@ -3664,7 +3664,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B108">
         <v>2019</v>
@@ -3693,7 +3693,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B109">
         <v>2019</v>
@@ -3722,7 +3722,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B110">
         <v>2019</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B111">
         <v>2019</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B112">
         <v>2019</v>
@@ -3809,7 +3809,7 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B113">
         <v>2019</v>
@@ -3838,7 +3838,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B114">
         <v>2019</v>
@@ -3867,7 +3867,7 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B115">
         <v>2019</v>
@@ -3896,7 +3896,7 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B116">
         <v>2019</v>
@@ -3925,7 +3925,7 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B117">
         <v>2019</v>
@@ -3954,7 +3954,7 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B118">
         <v>2019</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B119">
         <v>2019</v>
@@ -4012,7 +4012,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B120">
         <v>2019</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B121">
         <v>2019</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B122">
         <v>2019</v>
@@ -4099,7 +4099,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B123">
         <v>2019</v>
@@ -4128,7 +4128,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B124">
         <v>2019</v>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B126">
         <v>2019</v>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B127">
         <v>2019</v>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B128">
         <v>2019</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B129">
         <v>2019</v>
@@ -4285,7 +4285,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B130">
         <v>2019</v>
@@ -4314,7 +4314,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B131">
         <v>2019</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B132">
         <v>2019</v>
@@ -4372,7 +4372,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B133">
         <v>2019</v>
@@ -4413,7 +4413,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B135">
         <v>2019</v>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B136">
         <v>2019</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B137">
         <v>2019</v>
@@ -4500,7 +4500,7 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B138">
         <v>2019</v>
@@ -4529,7 +4529,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B139">
         <v>2019</v>
@@ -4558,7 +4558,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B140">
         <v>2019</v>
@@ -4587,7 +4587,7 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B141">
         <v>2019</v>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B142">
         <v>2019</v>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B143">
         <v>2019</v>
@@ -4674,7 +4674,7 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B144">
         <v>2019</v>
@@ -4715,7 +4715,7 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B146">
         <v>2019</v>
@@ -4744,7 +4744,7 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B147">
         <v>2019</v>
@@ -4773,7 +4773,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B148">
         <v>2019</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B149">
         <v>2019</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B150">
         <v>2019</v>
@@ -4860,7 +4860,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B151">
         <v>2019</v>
@@ -4901,7 +4901,7 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B153">
         <v>2019</v>
@@ -4930,7 +4930,7 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B154">
         <v>2019</v>
@@ -4959,7 +4959,7 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B155">
         <v>2019</v>
@@ -4988,7 +4988,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B156">
         <v>2019</v>
@@ -5017,7 +5017,7 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B157">
         <v>2019</v>
@@ -5046,7 +5046,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B158">
         <v>2019</v>
@@ -5075,7 +5075,7 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B159">
         <v>2019</v>
@@ -5104,7 +5104,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B160">
         <v>2019</v>
@@ -5133,7 +5133,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B161">
         <v>2019</v>
@@ -5162,7 +5162,7 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B162">
         <v>2019</v>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B163">
         <v>2019</v>
@@ -5220,7 +5220,7 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B164">
         <v>2019</v>
@@ -5249,7 +5249,7 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B165">
         <v>2019</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B166">
         <v>2019</v>
@@ -5307,7 +5307,7 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B167">
         <v>2019</v>
@@ -5336,7 +5336,7 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B168">
         <v>2019</v>
@@ -5365,7 +5365,7 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B169">
         <v>2019</v>
@@ -5394,7 +5394,7 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B170">
         <v>2019</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B171">
         <v>2019</v>
